--- a/biology/Zoologie/Hypsiglena_ochrorhyncha/Hypsiglena_ochrorhyncha.xlsx
+++ b/biology/Zoologie/Hypsiglena_ochrorhyncha/Hypsiglena_ochrorhyncha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsiglena ochrorhyncha  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsiglena ochrorhyncha  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Distribution de Hypsiglena ochrorhyncha baueri
@@ -521,7 +535,7 @@
 			Distribution de Hypsiglena ochrorhyncha nuchalata
 			Distribution de Hypsiglena ochrorhyncha ochrorhyncha
 			Distribution de Hypsiglena ochrorhyncha venusta
-Cette espèce se rencontre au Mexique en Basse-Californie du Sud et en Basse-Californie et aux États-Unis en Californie[1].
+Cette espèce se rencontre au Mexique en Basse-Californie du Sud et en Basse-Californie et aux États-Unis en Californie.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (1 avril 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (1 avril 2015) :
 Hypsiglena ochrorhyncha baueri Zweifel, 1958 - Île Cedros
 Hypsiglena ochrorhyncha gularis Tanner, 1954 - Île Partida Norte
 Hypsiglena ochrorhyncha klauberi Tanner, 1944 - États-Unis (Californie) et Mexique (Basse-Californie)
@@ -618,9 +636,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Hypsiglena ochrorhyncha unaocularis[3] a été élevée au rang d'espèce par Mulcahy, Martínez-Gómez, Aguirre-León, Cervantes-Pasqualli et Zug en 2014[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Hypsiglena ochrorhyncha unaocularis a été élevée au rang d'espèce par Mulcahy, Martínez-Gómez, Aguirre-León, Cervantes-Pasqualli et Zug en 2014.
 </t>
         </is>
       </c>
@@ -649,7 +669,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1860 : Catalogue of the Colubridae in the Museum of the Academy of Natural Sciences of Philadelphia, with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).
 Mocquard, 1899 : Contribution à la faune herpetologique de la Basse-Californie. Nouvelles archives du Muséum d'histoire naturelle, sér. 4, vol. 1, p. 297-344 (texte intégral).
